--- a/Images/Threaholding/statistics/statistics.xlsx
+++ b/Images/Threaholding/statistics/statistics.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,42 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>bigger_than_mean</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>q1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>bigger_than_q1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>q2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>bigger_than_q2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>q3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>bigger_than_q3</t>
         </is>
       </c>
     </row>
@@ -500,7 +520,7 @@
         <v>0.08368064432282275</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1582764360881851</v>
+        <v>0.1582764360881853</v>
       </c>
       <c r="D2" t="n">
         <v>0.002812548239006481</v>
@@ -515,16 +535,28 @@
         <v>0.192234792325081</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1966373598759815</v>
+        <v>382</v>
       </c>
       <c r="I2" t="n">
+        <v>0.1966373598759814</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.03883620689655171</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>752</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.110183644189383</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>501</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.2984913793103449</v>
+      </c>
+      <c r="O2" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +569,7 @@
         <v>0.03720537889514069</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08282876337083857</v>
+        <v>0.08282876337083873</v>
       </c>
       <c r="D3" t="n">
         <v>0.001088235284135472</v>
@@ -552,16 +584,28 @@
         <v>0.1404399809102224</v>
       </c>
       <c r="H3" t="n">
+        <v>3483</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.1160641606323796</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.05463114754098358</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
+        <v>6687</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.1096311475409836</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
+        <v>4465</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.1928320768609483</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2227</v>
       </c>
     </row>
     <row r="4">
@@ -574,7 +618,7 @@
         <v>0.1600165027605592</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1653548553640863</v>
+        <v>0.1653548553640861</v>
       </c>
       <c r="D4" t="n">
         <v>0.008166666585185186</v>
@@ -589,16 +633,28 @@
         <v>0.2216904324767486</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1569807139047449</v>
+        <v>980</v>
       </c>
       <c r="I4" t="n">
+        <v>0.1569807139047448</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.1095975855130785</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>1824</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.1842957746478873</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>1214</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.2940506329113924</v>
+      </c>
+      <c r="O4" t="n">
+        <v>608</v>
       </c>
     </row>
     <row r="5">
@@ -611,7 +667,7 @@
         <v>0.05177884478381095</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09444174778477524</v>
+        <v>0.09444174778477424</v>
       </c>
       <c r="D5" t="n">
         <v>0.003267999968000001</v>
@@ -626,16 +682,28 @@
         <v>0.1113024756373409</v>
       </c>
       <c r="H5" t="n">
+        <v>1362</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.116888389396965</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.0395322033898305</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>2953</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.07846101694915254</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
+        <v>1970</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.1402101694915254</v>
+      </c>
+      <c r="O5" t="n">
+        <v>984</v>
       </c>
     </row>
     <row r="6">
@@ -648,7 +716,7 @@
         <v>0.07207251013835649</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1760378120803178</v>
+        <v>0.1760378120803177</v>
       </c>
       <c r="D6" t="n">
         <v>0.002916379281896552</v>
@@ -663,16 +731,28 @@
         <v>0.2548387978819402</v>
       </c>
       <c r="H6" t="n">
+        <v>28</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.2629842642105996</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.05171625563830109</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>61</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.1527993158494869</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>41</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.3537343215507411</v>
+      </c>
+      <c r="O6" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -685,7 +765,7 @@
         <v>0.1193837358150096</v>
       </c>
       <c r="C7" t="n">
-        <v>0.118318835914732</v>
+        <v>0.1183188359147274</v>
       </c>
       <c r="D7" t="n">
         <v>0.007746341386178864</v>
@@ -700,16 +780,28 @@
         <v>0.1724586950243868</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1074817632891787</v>
+        <v>7920</v>
       </c>
       <c r="I7" t="n">
+        <v>0.1074817632891794</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.09641653905053602</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>13890</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.1549152542372881</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
+        <v>9247</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.2298315467075039</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4627</v>
       </c>
     </row>
     <row r="8">
@@ -737,16 +829,28 @@
         <v>0.3185775502461285</v>
       </c>
       <c r="H8" t="n">
+        <v>131</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.2254440788586201</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.1439257294429708</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
+        <v>218</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.2863859416445623</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
+        <v>145</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.4514953580901856</v>
+      </c>
+      <c r="O8" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -759,7 +863,7 @@
         <v>0.01560971430137811</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04414258696612428</v>
+        <v>0.04414258696612446</v>
       </c>
       <c r="D9" t="n">
         <v>0.003941071389772727</v>
@@ -774,16 +878,28 @@
         <v>0.06263452869096296</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09039951094863526</v>
+        <v>1507</v>
       </c>
       <c r="I9" t="n">
+        <v>0.09039951094863519</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.01969206123175507</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
+        <v>4460</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.03467070131719471</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
+        <v>2970</v>
+      </c>
+      <c r="N9" t="n">
         <v>0.06339444642221431</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1485</v>
       </c>
     </row>
     <row r="10">
@@ -811,16 +927,28 @@
         <v>0.1106761003162895</v>
       </c>
       <c r="H10" t="n">
+        <v>509</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.1346169106963324</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.02899653979238755</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
+        <v>1261</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.06395825280247394</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
+        <v>841</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.1345961293313246</v>
+      </c>
+      <c r="O10" t="n">
+        <v>421</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +976,28 @@
         <v>0.09884717666785001</v>
       </c>
       <c r="H11" t="n">
+        <v>497</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.1168180041159787</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.03038610038610037</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
+        <v>1166</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.06415057915057915</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
+        <v>778</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.1205699481865285</v>
+      </c>
+      <c r="O11" t="n">
+        <v>389</v>
       </c>
     </row>
     <row r="12">
@@ -885,16 +1025,28 @@
         <v>0.2179383258486949</v>
       </c>
       <c r="H12" t="n">
+        <v>201</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.1864396767490807</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0.08201271186440681</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
+        <v>403</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.1680084745762712</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
+        <v>271</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.3067226890756303</v>
+      </c>
+      <c r="O12" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -907,7 +1059,7 @@
         <v>0.06611456092976221</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1298896151086639</v>
+        <v>0.1298896151086642</v>
       </c>
       <c r="D13" t="n">
         <v>0.003312106505084747</v>
@@ -922,16 +1074,28 @@
         <v>0.1941129151432312</v>
       </c>
       <c r="H13" t="n">
+        <v>852</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.1666376311489653</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.06736241475551677</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
+        <v>1589</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.1456164383561644</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
+        <v>1060</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.2795287958115184</v>
+      </c>
+      <c r="O13" t="n">
+        <v>531</v>
       </c>
     </row>
     <row r="14">
@@ -944,7 +1108,7 @@
         <v>0.0114392201108831</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06143164958814906</v>
+        <v>0.0614316495881491</v>
       </c>
       <c r="D14" t="n">
         <v>0.001967168655838506</v>
@@ -959,16 +1123,28 @@
         <v>0.1839454728695667</v>
       </c>
       <c r="H14" t="n">
+        <v>48</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.2286217419211979</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.03811416914308976</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
+        <v>109</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.07363214848520699</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
+        <v>73</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.247076513924664</v>
+      </c>
+      <c r="O14" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -996,16 +1172,28 @@
         <v>0.1673330428665695</v>
       </c>
       <c r="H15" t="n">
+        <v>131</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.1806656414038941</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.04624663072776278</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
+        <v>309</v>
+      </c>
+      <c r="L15" t="n">
         <v>0.09894049522591256</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
+        <v>206</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.2262235712001462</v>
+      </c>
+      <c r="O15" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="16">
@@ -1018,7 +1206,7 @@
         <v>0.0326747132715065</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06804080114509926</v>
+        <v>0.06804080114509826</v>
       </c>
       <c r="D16" t="n">
         <v>0.003823853173394496</v>
@@ -1033,16 +1221,28 @@
         <v>0.08286856172462459</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0952729462989905</v>
+        <v>1881</v>
       </c>
       <c r="I16" t="n">
+        <v>0.09527294629899052</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.02573170731707315</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
+        <v>4359</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.05182397317686503</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
+        <v>2904</v>
+      </c>
+      <c r="N16" t="n">
         <v>0.1014634146341463</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1458</v>
       </c>
     </row>
     <row r="17">
@@ -1055,7 +1255,7 @@
         <v>0.04773481448030036</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110820117234102</v>
+        <v>0.1108201172341019</v>
       </c>
       <c r="D17" t="n">
         <v>0.002776547204234528</v>
@@ -1070,16 +1270,28 @@
         <v>0.1660049844201084</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1626640820601307</v>
+        <v>187</v>
       </c>
       <c r="I17" t="n">
+        <v>0.1626640820601308</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.04964805825242719</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
+        <v>374</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.1193325242718447</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
+        <v>250</v>
+      </c>
+      <c r="N17" t="n">
         <v>0.2256614077669904</v>
+      </c>
+      <c r="O17" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="18">
@@ -1092,7 +1304,7 @@
         <v>0.02195701788686596</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08271789689994884</v>
+        <v>0.0827178968999487</v>
       </c>
       <c r="D18" t="n">
         <v>0.002476796001080283</v>
@@ -1107,16 +1319,28 @@
         <v>0.2056068282050995</v>
       </c>
       <c r="H18" t="n">
+        <v>193</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.2003395338995563</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0.05266526246169177</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
+        <v>396</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.1389663017005303</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
+        <v>264</v>
+      </c>
+      <c r="N18" t="n">
         <v>0.2997533097290639</v>
+      </c>
+      <c r="O18" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="19">
@@ -1129,7 +1353,7 @@
         <v>0.005883264964095821</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04046298932731911</v>
+        <v>0.04046298932731889</v>
       </c>
       <c r="D19" t="n">
         <v>0.0006629171760197776</v>
@@ -1144,16 +1368,28 @@
         <v>0.1516513653093898</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1826065910430406</v>
+        <v>277</v>
       </c>
       <c r="I19" t="n">
+        <v>0.1826065910430407</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.03036380666916448</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
+        <v>657</v>
+      </c>
+      <c r="L19" t="n">
         <v>0.07395729649005525</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
+        <v>438</v>
+      </c>
+      <c r="N19" t="n">
         <v>0.1985414012738853</v>
+      </c>
+      <c r="O19" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="20">
@@ -1166,7 +1402,7 @@
         <v>0.05319678814355836</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1016508866868417</v>
+        <v>0.1016508866868416</v>
       </c>
       <c r="D20" t="n">
         <v>0.003033907171583324</v>
@@ -1181,16 +1417,28 @@
         <v>0.138144939072228</v>
       </c>
       <c r="H20" t="n">
+        <v>416</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.1301963802474387</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0.0534809119830329</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
+        <v>841</v>
+      </c>
+      <c r="L20" t="n">
         <v>0.0997613997879109</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
+        <v>561</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.1847110286320255</v>
+      </c>
+      <c r="O20" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="21">
@@ -1203,7 +1451,7 @@
         <v>0.05482671826902428</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1163507236484544</v>
+        <v>0.1163507236484564</v>
       </c>
       <c r="D21" t="n">
         <v>0.004338622711676647</v>
@@ -1218,16 +1466,28 @@
         <v>0.1078786401623052</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1497140677168045</v>
+        <v>823</v>
       </c>
       <c r="I21" t="n">
+        <v>0.1497140677168046</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.02154527416181406</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
+        <v>2248</v>
+      </c>
+      <c r="L21" t="n">
         <v>0.04150604266873546</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
+        <v>1502</v>
+      </c>
+      <c r="N21" t="n">
         <v>0.1258059914407988</v>
+      </c>
+      <c r="O21" t="n">
+        <v>753</v>
       </c>
     </row>
     <row r="22">
@@ -1255,16 +1515,28 @@
         <v>0.1286071063864216</v>
       </c>
       <c r="H22" t="n">
+        <v>64</v>
+      </c>
+      <c r="I22" t="n">
         <v>0.2034050916786772</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0.02122361219702894</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
+        <v>181</v>
+      </c>
+      <c r="L22" t="n">
         <v>0.04173573103987491</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
+        <v>122</v>
+      </c>
+      <c r="N22" t="n">
         <v>0.1356345177664974</v>
+      </c>
+      <c r="O22" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="23">
@@ -1277,7 +1549,7 @@
         <v>0.03009674884085624</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05720410261906493</v>
+        <v>0.05720410261906463</v>
       </c>
       <c r="D23" t="n">
         <v>0.004748170684756098</v>
@@ -1292,16 +1564,28 @@
         <v>0.07178376333677636</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07769829976201742</v>
+        <v>8738</v>
       </c>
       <c r="I23" t="n">
+        <v>0.07769829976201723</v>
+      </c>
+      <c r="J23" t="n">
         <v>0.02745891783567135</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
+        <v>20008</v>
+      </c>
+      <c r="L23" t="n">
         <v>0.04967935871743485</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
+        <v>13335</v>
+      </c>
+      <c r="N23" t="n">
         <v>0.08592544948645786</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6664</v>
       </c>
     </row>
     <row r="24">
@@ -1314,7 +1598,7 @@
         <v>0.1301982687197773</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2127505751288417</v>
+        <v>0.2127505751288416</v>
       </c>
       <c r="D24" t="n">
         <v>0.003158988733146068</v>
@@ -1329,16 +1613,28 @@
         <v>0.2755579591578187</v>
       </c>
       <c r="H24" t="n">
+        <v>95</v>
+      </c>
+      <c r="I24" t="n">
         <v>0.2407091568477693</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>0.098277687296417</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
+        <v>188</v>
+      </c>
+      <c r="L24" t="n">
         <v>0.1954234527687297</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
+        <v>126</v>
+      </c>
+      <c r="N24" t="n">
         <v>0.3766254729734854</v>
+      </c>
+      <c r="O24" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1366,16 +1662,28 @@
         <v>0.1595331478524986</v>
       </c>
       <c r="H25" t="n">
+        <v>330</v>
+      </c>
+      <c r="I25" t="n">
         <v>0.1623766697865504</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>0.03981000856508557</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
+        <v>655</v>
+      </c>
+      <c r="L25" t="n">
         <v>0.1022243346007605</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
+        <v>437</v>
+      </c>
+      <c r="N25" t="n">
         <v>0.2291058083125738</v>
+      </c>
+      <c r="O25" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="26">
@@ -1388,7 +1696,7 @@
         <v>0.07155008556180177</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1201047469045217</v>
+        <v>0.1201047469045213</v>
       </c>
       <c r="D26" t="n">
         <v>0.002232022450374532</v>
@@ -1403,16 +1711,28 @@
         <v>0.1718632928468149</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1365258420987612</v>
+        <v>816</v>
       </c>
       <c r="I26" t="n">
+        <v>0.1365258420987611</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.0693857069041758</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
+        <v>1476</v>
+      </c>
+      <c r="L26" t="n">
         <v>0.1441139502330793</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
+        <v>984</v>
+      </c>
+      <c r="N26" t="n">
         <v>0.2350768298727764</v>
+      </c>
+      <c r="O26" t="n">
+        <v>492</v>
       </c>
     </row>
     <row r="27">
@@ -1425,7 +1745,7 @@
         <v>0.02912610362394605</v>
       </c>
       <c r="C27" t="n">
-        <v>0.078484933879719</v>
+        <v>0.07848493387971905</v>
       </c>
       <c r="D27" t="n">
         <v>0.002770228980661578</v>
@@ -1440,16 +1760,28 @@
         <v>0.1151944323076478</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1345620125843813</v>
+        <v>1308</v>
       </c>
       <c r="I27" t="n">
+        <v>0.1345620125843815</v>
+      </c>
+      <c r="J27" t="n">
         <v>0.03011010915994304</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
+        <v>3187</v>
+      </c>
+      <c r="L27" t="n">
         <v>0.06218155197657392</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
+        <v>2126</v>
+      </c>
+      <c r="N27" t="n">
         <v>0.1455083056478405</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1063</v>
       </c>
     </row>
     <row r="28">
@@ -1462,7 +1794,7 @@
         <v>0.06299276329881102</v>
       </c>
       <c r="C28" t="n">
-        <v>0.106278395721383</v>
+        <v>0.1062783957213812</v>
       </c>
       <c r="D28" t="n">
         <v>0.002015326613819095</v>
@@ -1477,16 +1809,28 @@
         <v>0.1505858616308678</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1230997249354939</v>
+        <v>2237</v>
       </c>
       <c r="I28" t="n">
+        <v>0.1230997249354938</v>
+      </c>
+      <c r="J28" t="n">
         <v>0.05738065944881891</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
+        <v>4228</v>
+      </c>
+      <c r="L28" t="n">
         <v>0.1191235059760956</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
+        <v>2822</v>
+      </c>
+      <c r="N28" t="n">
         <v>0.2075751072961375</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1410</v>
       </c>
     </row>
     <row r="29">
@@ -1499,7 +1843,7 @@
         <v>0.135711193153348</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1335459443651772</v>
+        <v>0.1335459443651773</v>
       </c>
       <c r="D29" t="n">
         <v>0.01023430104133797</v>
@@ -1514,16 +1858,28 @@
         <v>0.1789187152070285</v>
       </c>
       <c r="H29" t="n">
+        <v>1014</v>
+      </c>
+      <c r="I29" t="n">
         <v>0.1273932829623345</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>0.08184846322442531</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
+        <v>1751</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.1568171160609613</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
+        <v>1170</v>
+      </c>
+      <c r="N29" t="n">
         <v>0.2456037514654162</v>
+      </c>
+      <c r="O29" t="n">
+        <v>585</v>
       </c>
     </row>
     <row r="30">
@@ -1536,7 +1892,7 @@
         <v>0.0344260750304197</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07299143294605952</v>
+        <v>0.07299143294605907</v>
       </c>
       <c r="D30" t="n">
         <v>0.004189130393478262</v>
@@ -1551,16 +1907,28 @@
         <v>0.1166312338089188</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1058294774775492</v>
+        <v>4062</v>
       </c>
       <c r="I30" t="n">
+        <v>0.1058294774775494</v>
+      </c>
+      <c r="J30" t="n">
         <v>0.0408219178082192</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
+        <v>8014</v>
+      </c>
+      <c r="L30" t="n">
         <v>0.08705479452054793</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
+        <v>5341</v>
+      </c>
+      <c r="N30" t="n">
         <v>0.1567123287671233</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2676</v>
       </c>
     </row>
     <row r="31">
@@ -1573,7 +1941,7 @@
         <v>0.02165497245086739</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0805589606727156</v>
+        <v>0.08055896067271408</v>
       </c>
       <c r="D31" t="n">
         <v>0.002424760359904154</v>
@@ -1588,16 +1956,28 @@
         <v>0.1919878638985988</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1935878443111494</v>
+        <v>1333</v>
       </c>
       <c r="I31" t="n">
+        <v>0.1935878443111492</v>
+      </c>
+      <c r="J31" t="n">
         <v>0.03349007765314928</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
+        <v>2571</v>
+      </c>
+      <c r="L31" t="n">
         <v>0.1189974480495807</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
+        <v>1713</v>
+      </c>
+      <c r="N31" t="n">
         <v>0.3080511757200146</v>
+      </c>
+      <c r="O31" t="n">
+        <v>857</v>
       </c>
     </row>
     <row r="32">
@@ -1625,16 +2005,28 @@
         <v>0.2162597559725711</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1890228691822195</v>
+        <v>296</v>
       </c>
       <c r="I32" t="n">
+        <v>0.1890228691822194</v>
+      </c>
+      <c r="J32" t="n">
         <v>0.07038817005545273</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
+        <v>554</v>
+      </c>
+      <c r="L32" t="n">
         <v>0.1588785377639146</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
+        <v>369</v>
+      </c>
+      <c r="N32" t="n">
         <v>0.3072134935304991</v>
+      </c>
+      <c r="O32" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="33">
@@ -1647,7 +2039,7 @@
         <v>0.05537602683893688</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1329596767691015</v>
+        <v>0.1329596767691011</v>
       </c>
       <c r="D33" t="n">
         <v>0.001375460109815951</v>
@@ -1662,16 +2054,28 @@
         <v>0.2035612639267756</v>
       </c>
       <c r="H33" t="n">
+        <v>255</v>
+      </c>
+      <c r="I33" t="n">
         <v>0.194966383060203</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>0.04735849056603775</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
+        <v>483</v>
+      </c>
+      <c r="L33" t="n">
         <v>0.1376415094339622</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
+        <v>322</v>
+      </c>
+      <c r="N33" t="n">
         <v>0.3205904267328968</v>
+      </c>
+      <c r="O33" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="34">
@@ -1684,7 +2088,7 @@
         <v>0.04203789615204658</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09998822465429565</v>
+        <v>0.09998822465429585</v>
       </c>
       <c r="D34" t="n">
         <v>0.002938625563744076</v>
@@ -1699,16 +2103,28 @@
         <v>0.1304723326880835</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1496599336081553</v>
+        <v>778</v>
       </c>
       <c r="I34" t="n">
+        <v>0.1496599336081554</v>
+      </c>
+      <c r="J34" t="n">
         <v>0.03908672566371682</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
+        <v>1993</v>
+      </c>
+      <c r="L34" t="n">
         <v>0.06885913229780391</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
+        <v>1329</v>
+      </c>
+      <c r="N34" t="n">
         <v>0.1613093636884678</v>
+      </c>
+      <c r="O34" t="n">
+        <v>664</v>
       </c>
     </row>
     <row r="35">
@@ -1721,7 +2137,7 @@
         <v>0.03697672024654752</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1291787827638335</v>
+        <v>0.1291787827638332</v>
       </c>
       <c r="D35" t="n">
         <v>0.0006358974304843307</v>
@@ -1736,16 +2152,28 @@
         <v>0.2588669850487348</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2622510016968927</v>
+        <v>37</v>
       </c>
       <c r="I35" t="n">
+        <v>0.2622510016968928</v>
+      </c>
+      <c r="J35" t="n">
         <v>0.06169240146282002</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
+        <v>67</v>
+      </c>
+      <c r="L35" t="n">
         <v>0.1628646891507518</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
+        <v>45</v>
+      </c>
+      <c r="N35" t="n">
         <v>0.3548872180451128</v>
+      </c>
+      <c r="O35" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -1758,7 +2186,7 @@
         <v>0.03804473197536293</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1343521424793639</v>
+        <v>0.134352142479364</v>
       </c>
       <c r="D36" t="n">
         <v>0.0008759459381081083</v>
@@ -1773,16 +2201,28 @@
         <v>0.3300500561298771</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2667706766399765</v>
+        <v>40</v>
       </c>
       <c r="I36" t="n">
+        <v>0.2667706766399764</v>
+      </c>
+      <c r="J36" t="n">
         <v>0.09427485163204752</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
+        <v>67</v>
+      </c>
+      <c r="L36" t="n">
         <v>0.2973579666809055</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
+        <v>45</v>
+      </c>
+      <c r="N36" t="n">
         <v>0.4263351895700053</v>
+      </c>
+      <c r="O36" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -1795,7 +2235,7 @@
         <v>0.04043299692102825</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08964506556847536</v>
+        <v>0.08964506556847056</v>
       </c>
       <c r="D37" t="n">
         <v>0.002678742488922156</v>
@@ -1810,16 +2250,28 @@
         <v>0.126636481016155</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1289211631718683</v>
+        <v>42597</v>
       </c>
       <c r="I37" t="n">
+        <v>0.1289211631718685</v>
+      </c>
+      <c r="J37" t="n">
         <v>0.03713777144891417</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
+        <v>89879</v>
+      </c>
+      <c r="L37" t="n">
         <v>0.0827718223583461</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
+        <v>59946</v>
+      </c>
+      <c r="N37" t="n">
         <v>0.171844262295082</v>
+      </c>
+      <c r="O37" t="n">
+        <v>29961</v>
       </c>
     </row>
   </sheetData>
